--- a/apuestas.xlsx
+++ b/apuestas.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEDES SALUD notebook\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Clase R\apuestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D7E6EF-522F-4FC4-AE43-9B0F7060C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03009C-2DEF-4266-B253-7E072452F7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$L$4:$L$76</definedName>
@@ -602,9 +603,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,38 +943,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:T101"/>
+  <dimension ref="C4:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" customWidth="1"/>
-    <col min="18" max="18" width="15.21875" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" customWidth="1"/>
-    <col min="20" max="22" width="12.21875" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -1411,13 +1411,13 @@
       <c r="K12">
         <v>2.35</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>107</v>
       </c>
       <c r="O12" t="s">
@@ -1439,7 +1439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>22</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>35</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>37</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>38</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>40</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>43</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>45</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>47</v>
       </c>
@@ -2204,87 +2204,85 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>5.75</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>5.5</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>5.5</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>1.66</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
         <v>1.68</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28">
         <v>1.7</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" t="s">
         <v>50</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
+      <c r="O28" t="s">
         <v>65</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" t="s">
         <v>65</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" t="s">
         <v>89</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" t="s">
         <v>65</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" t="s">
         <v>34</v>
       </c>
       <c r="T28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>3.1</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>3</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>2.62</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>2.65</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29">
         <v>2.65</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" t="s">
         <v>15</v>
       </c>
       <c r="M29" t="s">
@@ -2293,7 +2291,7 @@
       <c r="N29" t="s">
         <v>9</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" t="s">
         <v>15</v>
       </c>
       <c r="P29" t="s">
@@ -2302,39 +2300,39 @@
       <c r="Q29" t="s">
         <v>15</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>3.1</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>3</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>3.1</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>2.6</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" t="s">
         <v>9</v>
       </c>
       <c r="M30" t="s">
@@ -2343,7 +2341,7 @@
       <c r="N30" t="s">
         <v>9</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" t="s">
         <v>11</v>
       </c>
       <c r="P30" t="s">
@@ -2352,39 +2350,39 @@
       <c r="Q30" t="s">
         <v>11</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>68</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>3.4</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>3.3</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>3.3</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" t="s">
         <v>92</v>
       </c>
       <c r="M31" t="s">
@@ -2393,7 +2391,7 @@
       <c r="N31" t="s">
         <v>92</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" t="s">
         <v>98</v>
       </c>
       <c r="P31" t="s">
@@ -2402,39 +2400,39 @@
       <c r="Q31" t="s">
         <v>98</v>
       </c>
-      <c r="R31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
+      <c r="R31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>4.33</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>3.75</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>4</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>1.95</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
         <v>2.0499999999999998</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32">
         <v>2</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" t="s">
         <v>62</v>
       </c>
       <c r="M32" t="s">
@@ -2443,7 +2441,7 @@
       <c r="N32" t="s">
         <v>62</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" t="s">
         <v>13</v>
       </c>
       <c r="P32" t="s">
@@ -2452,39 +2450,39 @@
       <c r="Q32" t="s">
         <v>13</v>
       </c>
-      <c r="R32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
+      <c r="R32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>3.6</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>3.75</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>2.0499999999999998</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" t="s">
         <v>28</v>
       </c>
       <c r="M33" t="s">
@@ -2493,7 +2491,7 @@
       <c r="N33" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" t="s">
         <v>93</v>
       </c>
       <c r="P33" t="s">
@@ -2502,39 +2500,39 @@
       <c r="Q33" t="s">
         <v>93</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>71</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>3.2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>3.2</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>3.1</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>2.4</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34">
         <v>2.35</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" t="s">
         <v>94</v>
       </c>
       <c r="M34" t="s">
@@ -2543,48 +2541,48 @@
       <c r="N34" t="s">
         <v>94</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" t="s">
         <v>107</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" t="s">
         <v>107</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="Q34" t="s">
         <v>107</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="R34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>5.25</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>4.75</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>1.72</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
         <v>1.75</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35">
         <v>1.8</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" t="s">
         <v>64</v>
       </c>
       <c r="M35" t="s">
@@ -2593,7 +2591,7 @@
       <c r="N35" t="s">
         <v>64</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" t="s">
         <v>25</v>
       </c>
       <c r="P35" t="s">
@@ -2602,39 +2600,39 @@
       <c r="Q35" t="s">
         <v>25</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="R35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>104</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>2</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>3.5</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>3.45</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>3.5</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36">
         <v>2.25</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36">
         <v>2.25</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" t="s">
         <v>61</v>
       </c>
       <c r="M36" t="s">
@@ -2643,7 +2641,7 @@
       <c r="N36" t="s">
         <v>61</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" t="s">
         <v>23</v>
       </c>
       <c r="P36" t="s">
@@ -2652,39 +2650,39 @@
       <c r="Q36" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
+      <c r="R36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>73</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>3.6</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>3.45</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
         <v>3.5</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>2.25</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" t="s">
         <v>59</v>
       </c>
       <c r="M37" t="s">
@@ -2693,7 +2691,7 @@
       <c r="N37" t="s">
         <v>59</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" t="s">
         <v>97</v>
       </c>
       <c r="P37" t="s">
@@ -2702,39 +2700,39 @@
       <c r="Q37" t="s">
         <v>97</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
+      <c r="R37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>4.2</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>3.9</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>3.75</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
         <v>2.0499999999999998</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38">
         <v>2.1</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" t="s">
         <v>91</v>
       </c>
       <c r="M38" t="s">
@@ -2743,7 +2741,7 @@
       <c r="N38" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" t="s">
         <v>57</v>
       </c>
       <c r="P38" t="s">
@@ -2752,39 +2750,39 @@
       <c r="Q38" t="s">
         <v>57</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="R38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>3.1</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>3.1</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>3.1</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>2.4</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39">
         <v>2.4</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" t="s">
         <v>105</v>
       </c>
       <c r="M39" t="s">
@@ -2793,7 +2791,7 @@
       <c r="N39" t="s">
         <v>9</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" t="s">
         <v>56</v>
       </c>
       <c r="P39" t="s">
@@ -2802,40 +2800,39 @@
       <c r="Q39" t="s">
         <v>56</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R39" t="s">
         <v>99</v>
       </c>
-      <c r="S39" s="1"/>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>76</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>3.2</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>3.15</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>3.1</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40">
         <v>2.4</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40">
         <v>2.5</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" t="s">
         <v>21</v>
       </c>
       <c r="M40" t="s">
@@ -2844,7 +2841,7 @@
       <c r="N40" t="s">
         <v>9</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" t="s">
         <v>6</v>
       </c>
       <c r="P40" t="s">
@@ -2853,39 +2850,39 @@
       <c r="Q40" t="s">
         <v>6</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>77</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>3.3</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>3.3</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
         <v>3.25</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41">
         <v>2.25</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" t="s">
         <v>9</v>
       </c>
       <c r="M41" t="s">
@@ -2894,7 +2891,7 @@
       <c r="N41" t="s">
         <v>106</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" t="s">
         <v>63</v>
       </c>
       <c r="P41" t="s">
@@ -2903,39 +2900,39 @@
       <c r="Q41" t="s">
         <v>8</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>78</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>4.75</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>4.5</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>4.33</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>1.83</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42">
         <v>1.85</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42">
         <v>1.87</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" t="s">
         <v>60</v>
       </c>
       <c r="M42" t="s">
@@ -2944,7 +2941,7 @@
       <c r="N42" t="s">
         <v>60</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" t="s">
         <v>17</v>
       </c>
       <c r="P42" t="s">
@@ -2953,39 +2950,39 @@
       <c r="Q42" t="s">
         <v>17</v>
       </c>
-      <c r="R42" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C43" s="1" t="s">
+      <c r="R42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>79</v>
       </c>
       <c r="D43" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>7.5</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>6.5</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
         <v>7</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>1.5</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
         <v>1.53</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43">
         <v>1.52</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" t="s">
         <v>53</v>
       </c>
       <c r="M43" t="s">
@@ -2994,7 +2991,7 @@
       <c r="N43" t="s">
         <v>53</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" t="s">
         <v>53</v>
       </c>
       <c r="P43" t="s">
@@ -3007,35 +3004,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>80</v>
       </c>
       <c r="D44" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>3</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>2.95</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>3</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>2.62</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
         <v>2.6</v>
       </c>
       <c r="K44">
         <v>2.7</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" t="s">
         <v>9</v>
       </c>
       <c r="M44" t="s">
@@ -3044,7 +3041,7 @@
       <c r="N44" t="s">
         <v>9</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" t="s">
         <v>50</v>
       </c>
       <c r="P44" t="s">
@@ -3057,35 +3054,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>81</v>
       </c>
       <c r="D45" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>3.5</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>3.6</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>3.6</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>2.15</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>2.1</v>
       </c>
       <c r="K45">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" t="s">
         <v>9</v>
       </c>
       <c r="M45" t="s">
@@ -3094,7 +3091,7 @@
       <c r="N45" t="s">
         <v>9</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" t="s">
         <v>65</v>
       </c>
       <c r="P45" t="s">
@@ -3107,35 +3104,35 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>82</v>
       </c>
       <c r="D46" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>6</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>5.75</v>
       </c>
       <c r="H46">
         <v>6</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>1.66</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>1.7</v>
       </c>
       <c r="K46">
         <v>1.72</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" t="s">
         <v>32</v>
       </c>
       <c r="M46" t="s">
@@ -3144,7 +3141,7 @@
       <c r="N46" t="s">
         <v>32</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" t="s">
         <v>36</v>
       </c>
       <c r="P46" t="s">
@@ -3157,35 +3154,35 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C47" s="1" t="s">
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>83</v>
       </c>
       <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>5.5</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>5.25</v>
       </c>
       <c r="H47">
         <v>5.5</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>1.66</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>1.67</v>
       </c>
       <c r="K47">
         <v>1.72</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" t="s">
         <v>96</v>
       </c>
       <c r="M47" t="s">
@@ -3194,7 +3191,7 @@
       <c r="N47" t="s">
         <v>96</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" t="s">
         <v>107</v>
       </c>
       <c r="P47" t="s">
@@ -3207,35 +3204,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C48" s="1" t="s">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>84</v>
       </c>
       <c r="D48" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>3.2</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>3.1</v>
       </c>
       <c r="H48">
         <v>3.3</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>2.37</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>2.4500000000000002</v>
       </c>
       <c r="K48">
         <v>2.4</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" t="s">
         <v>9</v>
       </c>
       <c r="M48" t="s">
@@ -3244,7 +3241,7 @@
       <c r="N48" t="s">
         <v>9</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
@@ -3257,35 +3254,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>85</v>
       </c>
       <c r="D49" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>2</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>6.5</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>6.25</v>
       </c>
       <c r="H49">
         <v>7</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>1.45</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49">
         <v>1.45</v>
       </c>
       <c r="K49">
         <v>1.48</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" t="s">
         <v>54</v>
       </c>
       <c r="M49" t="s">
@@ -3294,7 +3291,7 @@
       <c r="N49" t="s">
         <v>54</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" t="s">
         <v>100</v>
       </c>
       <c r="P49" t="s">
@@ -3307,35 +3304,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>86</v>
       </c>
       <c r="D50" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>3</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
         <v>3.05</v>
       </c>
       <c r="H50">
         <v>3.2</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>2.7</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50">
         <v>2.5499999999999998</v>
       </c>
       <c r="K50">
         <v>2.6</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" t="s">
         <v>9</v>
       </c>
       <c r="M50" t="s">
@@ -3344,7 +3341,7 @@
       <c r="N50" t="s">
         <v>9</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" t="s">
         <v>95</v>
       </c>
       <c r="P50" t="s">
@@ -3357,35 +3354,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
+    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>87</v>
       </c>
       <c r="D51" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>2</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>4.75</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>4.4000000000000004</v>
       </c>
       <c r="H51">
         <v>4.5</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>1.72</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51">
         <v>1.72</v>
       </c>
       <c r="K51">
         <v>1.8</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" t="s">
         <v>33</v>
       </c>
       <c r="M51" t="s">
@@ -3394,7 +3391,7 @@
       <c r="N51" t="s">
         <v>33</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O51" t="s">
         <v>103</v>
       </c>
       <c r="P51" t="s">
@@ -3407,35 +3404,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
+    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>88</v>
       </c>
       <c r="D52" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>3</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>3</v>
       </c>
       <c r="H52">
         <v>3.1</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>2.8</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52">
         <v>2.65</v>
       </c>
       <c r="K52">
         <v>2.75</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" t="s">
         <v>9</v>
       </c>
       <c r="M52" t="s">
@@ -3444,7 +3441,7 @@
       <c r="N52" t="s">
         <v>9</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O52" t="s">
         <v>108</v>
       </c>
       <c r="P52" t="s">
@@ -3457,35 +3454,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C53" s="1" t="s">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>123</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>3</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>3.1</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <v>3.1</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>3.1</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>2.5</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53">
         <v>2.4</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53">
         <v>2.4</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" t="s">
         <v>9</v>
       </c>
       <c r="M53" t="s">
@@ -3494,48 +3491,48 @@
       <c r="N53" t="s">
         <v>149</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="O53" t="s">
         <v>23</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="P53" t="s">
         <v>23</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="Q53" t="s">
         <v>23</v>
       </c>
       <c r="R53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
+    <row r="54" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>124</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>3</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>8</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
         <v>8</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <v>8.5</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>1.4</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54">
         <v>1.4</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54">
         <v>1.38</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" t="s">
         <v>21</v>
       </c>
       <c r="M54" t="s">
@@ -3544,98 +3541,98 @@
       <c r="N54" t="s">
         <v>21</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O54" t="s">
         <v>99</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P54" t="s">
         <v>99</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="Q54" t="s">
         <v>99</v>
       </c>
       <c r="R54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C55" s="1" t="s">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>125</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>3</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>3.5</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <v>3.45</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <v>3.5</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>2.25</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55">
         <v>2.25</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" t="s">
         <v>107</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" t="s">
         <v>107</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" t="s">
         <v>107</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="O55" t="s">
         <v>61</v>
       </c>
       <c r="P55" t="s">
         <v>61</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="Q55" t="s">
         <v>61</v>
       </c>
       <c r="R55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
+    <row r="56" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>126</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>3</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>5.25</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <v>4.75</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <v>4.75</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>1.83</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56">
         <v>1.83</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56">
         <v>1.85</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" t="s">
         <v>98</v>
       </c>
       <c r="M56" t="s">
@@ -3644,48 +3641,48 @@
       <c r="N56" t="s">
         <v>98</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="O56" t="s">
         <v>59</v>
       </c>
       <c r="P56" t="s">
         <v>59</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="Q56" t="s">
         <v>59</v>
       </c>
       <c r="R56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" t="s">
+    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>127</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>3</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>3.1</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
         <v>3.1</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <v>3.1</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>2.75</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57">
         <v>2.7</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57">
         <v>2.65</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" t="s">
         <v>9</v>
       </c>
       <c r="M57" t="s">
@@ -3694,48 +3691,48 @@
       <c r="N57" t="s">
         <v>9</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="O57" t="s">
         <v>60</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="P57" t="s">
         <v>148</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="Q57" t="s">
         <v>57</v>
       </c>
       <c r="R57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>128</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>3</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>3.2</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>3.15</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
         <v>3.2</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58">
         <v>2.5</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58">
         <v>2.5</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" t="s">
         <v>9</v>
       </c>
       <c r="M58" t="s">
@@ -3744,48 +3741,48 @@
       <c r="N58" t="s">
         <v>9</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="O58" t="s">
         <v>6</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P58" t="s">
         <v>6</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="Q58" t="s">
         <v>6</v>
       </c>
       <c r="R58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C59" s="1" t="s">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>129</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>3</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>4</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>3.8</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <v>3.75</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>2</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59">
         <v>1.95</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59">
         <v>2</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" t="s">
         <v>62</v>
       </c>
       <c r="M59" t="s">
@@ -3794,48 +3791,48 @@
       <c r="N59" t="s">
         <v>62</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="O59" t="s">
         <v>56</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="P59" t="s">
         <v>56</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="Q59" t="s">
         <v>56</v>
       </c>
       <c r="R59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>130</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>3</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>6</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>7</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <v>6.5</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>1.53</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60">
         <v>1.5</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60">
         <v>1.53</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" t="s">
         <v>15</v>
       </c>
       <c r="M60" t="s">
@@ -3844,45 +3841,45 @@
       <c r="N60" t="s">
         <v>15</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="O60" t="s">
         <v>63</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="P60" t="s">
         <v>63</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="Q60" t="s">
         <v>63</v>
       </c>
-      <c r="R60" s="1" t="s">
+      <c r="R60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C61" s="1" t="s">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>131</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>3</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>7.5</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>7.25</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
         <v>7</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>1.45</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61">
         <v>1.45</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61">
         <v>1.45</v>
       </c>
       <c r="L61" t="s">
@@ -3894,48 +3891,48 @@
       <c r="N61" t="s">
         <v>8</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="O61" t="s">
         <v>93</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" t="s">
         <v>93</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="Q61" t="s">
         <v>93</v>
       </c>
-      <c r="R61" s="1" t="s">
+      <c r="R61" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C62" s="1" t="s">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>132</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>3</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>3.75</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>3.6</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
         <v>3.6</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>2.15</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62">
         <v>2.1</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62">
         <v>2.1</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" t="s">
         <v>97</v>
       </c>
       <c r="M62" t="s">
@@ -3944,45 +3941,45 @@
       <c r="N62" t="s">
         <v>97</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="O62" t="s">
         <v>90</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="P62" t="s">
         <v>90</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="Q62" t="s">
         <v>90</v>
       </c>
-      <c r="R62" s="1" t="s">
+      <c r="R62" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C63" s="1" t="s">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>133</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>3</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>3.25</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>3.4</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <v>3.2</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>2.25</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63">
         <v>2.2999999999999998</v>
       </c>
       <c r="L63" t="s">
@@ -3994,48 +3991,48 @@
       <c r="N63" t="s">
         <v>150</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="O63" t="s">
         <v>58</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="P63" t="s">
         <v>58</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="Q63" t="s">
         <v>58</v>
       </c>
-      <c r="R63" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C64" s="1" t="s">
+      <c r="R63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>134</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>3</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>3</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>3.05</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64">
         <v>3.1</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>2.5</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64">
         <v>2.4500000000000002</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64">
         <v>2.5</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" t="s">
         <v>147</v>
       </c>
       <c r="M64" t="s">
@@ -4044,48 +4041,48 @@
       <c r="N64" t="s">
         <v>9</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="O64" t="s">
         <v>17</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="P64" t="s">
         <v>17</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q64" t="s">
         <v>17</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="R64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C65" s="1" t="s">
+    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>135</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>3</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>3.1</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>3</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
         <v>3.1</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>2.62</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65">
         <v>2.65</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65">
         <v>2.6</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" t="s">
         <v>9</v>
       </c>
       <c r="M65" t="s">
@@ -4094,48 +4091,48 @@
       <c r="N65" t="s">
         <v>9</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="O65" t="s">
         <v>92</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="P65" t="s">
         <v>92</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="Q65" t="s">
         <v>92</v>
       </c>
-      <c r="R65" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C66" s="1" t="s">
+      <c r="R65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>136</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>3</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
         <v>5.5</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>5.5</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
         <v>5</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>1.66</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66">
         <v>1.7</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66">
         <v>1.72</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" t="s">
         <v>13</v>
       </c>
       <c r="M66" t="s">
@@ -4144,48 +4141,48 @@
       <c r="N66" t="s">
         <v>13</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="O66" t="s">
         <v>91</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="P66" t="s">
         <v>91</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="Q66" t="s">
         <v>91</v>
       </c>
-      <c r="R66" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C67" s="1" t="s">
+      <c r="R66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>137</v>
       </c>
       <c r="D67" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>3</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>3.25</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>3.35</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67">
         <v>3.3</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>2.5</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" t="s">
         <v>50</v>
       </c>
       <c r="M67" t="s">
@@ -4194,48 +4191,48 @@
       <c r="N67" t="s">
         <v>50</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="O67" t="s">
         <v>53</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="P67" t="s">
         <v>53</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="Q67" t="s">
         <v>53</v>
       </c>
       <c r="R67" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C68" s="1" t="s">
+    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>138</v>
       </c>
       <c r="D68" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>3</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>8.5</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>11</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
         <v>13</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>1.25</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68">
         <v>1.22</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68">
         <v>1.26</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L68" t="s">
         <v>52</v>
       </c>
       <c r="M68" t="s">
@@ -4244,48 +4241,48 @@
       <c r="N68" t="s">
         <v>52</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="O68" t="s">
         <v>103</v>
       </c>
-      <c r="P68" s="1" t="s">
+      <c r="P68" t="s">
         <v>103</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="Q68" t="s">
         <v>103</v>
       </c>
       <c r="R68" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C69" s="1" t="s">
+    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>139</v>
       </c>
       <c r="D69" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>3</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>3.3</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>3.2</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
         <v>3.3</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>2.6</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69">
         <v>2.5</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69">
         <v>2.7</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L69" t="s">
         <v>9</v>
       </c>
       <c r="M69" t="s">
@@ -4294,48 +4291,48 @@
       <c r="N69" t="s">
         <v>9</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="O69" t="s">
         <v>32</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="P69" t="s">
         <v>32</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="Q69" t="s">
         <v>32</v>
       </c>
       <c r="R69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C70" s="1" t="s">
+    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>140</v>
       </c>
       <c r="D70" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70">
         <v>3</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70">
         <v>4</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>3.8</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70">
         <v>3.75</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70">
         <v>2.0499999999999998</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70">
         <v>2.15</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L70" t="s">
         <v>101</v>
       </c>
       <c r="M70" t="s">
@@ -4344,48 +4341,48 @@
       <c r="N70" t="s">
         <v>101</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="O70" t="s">
         <v>55</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="P70" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="Q70" t="s">
         <v>55</v>
       </c>
       <c r="R70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C71" s="1" t="s">
+    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>141</v>
       </c>
       <c r="D71" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>3</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71">
         <v>4</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>3.9</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71">
         <v>3.75</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71">
         <v>2.0499999999999998</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71">
         <v>2.1</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" t="s">
         <v>48</v>
       </c>
       <c r="M71" t="s">
@@ -4394,48 +4391,48 @@
       <c r="N71" t="s">
         <v>48</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="O71" t="s">
         <v>54</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="P71" t="s">
         <v>54</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="Q71" t="s">
         <v>54</v>
       </c>
       <c r="R71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C72" s="1" t="s">
+    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>142</v>
       </c>
       <c r="D72" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72">
         <v>3</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
         <v>3.5</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>3.35</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72">
         <v>3.4</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72">
         <v>2.37</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72">
         <v>2.4</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" t="s">
         <v>36</v>
       </c>
       <c r="M72" t="s">
@@ -4444,48 +4441,48 @@
       <c r="N72" t="s">
         <v>36</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="O72" t="s">
         <v>102</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="P72" t="s">
         <v>102</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="Q72" t="s">
         <v>102</v>
       </c>
-      <c r="R72" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C73" s="1" t="s">
+      <c r="R72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>143</v>
       </c>
       <c r="D73" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73">
         <v>3</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73">
         <v>6</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>5.25</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73">
         <v>5.5</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
         <v>1.61</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73">
         <v>1.62</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73">
         <v>1.66</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" t="s">
         <v>46</v>
       </c>
       <c r="M73" t="s">
@@ -4494,48 +4491,48 @@
       <c r="N73" t="s">
         <v>46</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="O73" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="1" t="s">
+      <c r="P73" t="s">
         <v>96</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="Q73" t="s">
         <v>96</v>
       </c>
-      <c r="R73" s="1" t="s">
+      <c r="R73" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C74" s="1" t="s">
+    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>144</v>
       </c>
       <c r="D74" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74">
         <v>3</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
         <v>4</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>4</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
         <v>4</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>1.9</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74">
         <v>1.83</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74">
         <v>1.92</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="L74" t="s">
         <v>33</v>
       </c>
       <c r="M74" t="s">
@@ -4544,48 +4541,48 @@
       <c r="N74" t="s">
         <v>33</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="O74" t="s">
         <v>89</v>
       </c>
-      <c r="P74" s="1" t="s">
+      <c r="P74" t="s">
         <v>89</v>
       </c>
-      <c r="Q74" s="1" t="s">
+      <c r="Q74" t="s">
         <v>89</v>
       </c>
-      <c r="R74" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C75" s="1" t="s">
+      <c r="R74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>145</v>
       </c>
       <c r="D75" t="s">
         <v>31</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75">
         <v>3</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75">
         <v>3.5</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>3.4</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75">
         <v>3.5</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>2.15</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75">
         <v>2.15</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" t="s">
         <v>95</v>
       </c>
       <c r="M75" t="s">
@@ -4594,48 +4591,48 @@
       <c r="N75" t="s">
         <v>95</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="O75" t="s">
         <v>100</v>
       </c>
-      <c r="P75" s="1" t="s">
+      <c r="P75" t="s">
         <v>100</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="Q75" t="s">
         <v>100</v>
       </c>
-      <c r="R75" s="1" t="s">
+      <c r="R75" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C76" s="1" t="s">
+    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>146</v>
       </c>
       <c r="D76" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76">
         <v>3</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76">
         <v>3.6</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>3.5</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76">
         <v>3.6</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
         <v>2.1</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76">
         <v>2.1</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76">
         <v>2.1</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" t="s">
         <v>42</v>
       </c>
       <c r="M76" t="s">
@@ -4644,48 +4641,48 @@
       <c r="N76" t="s">
         <v>42</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="O76" t="s">
         <v>39</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="P76" t="s">
         <v>39</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="Q76" t="s">
         <v>39</v>
       </c>
-      <c r="R76" s="1" t="s">
+      <c r="R76" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C77" s="1" t="s">
+    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>152</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77">
         <v>4</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77">
         <v>3.1</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>3.1</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77">
         <v>3.1</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
         <v>2.4</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77">
         <v>2.4500000000000002</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77">
         <v>2.5</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="L77" t="s">
         <v>9</v>
       </c>
       <c r="M77" t="s">
@@ -4694,48 +4691,48 @@
       <c r="N77" t="s">
         <v>9</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="O77" t="s">
         <v>63</v>
       </c>
-      <c r="P77" s="1" t="s">
+      <c r="P77" t="s">
         <v>63</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="Q77" t="s">
         <v>63</v>
       </c>
-      <c r="R77" s="1" t="s">
+      <c r="R77" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C78" s="1" t="s">
+    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>153</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78">
         <v>4</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78">
         <v>4</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>3.9</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78">
         <v>3.75</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
         <v>1.9</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78">
         <v>1.95</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" t="s">
         <v>21</v>
       </c>
       <c r="M78" t="s">
@@ -4744,48 +4741,48 @@
       <c r="N78" t="s">
         <v>21</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="O78" t="s">
         <v>56</v>
       </c>
-      <c r="P78" s="1" t="s">
+      <c r="P78" t="s">
         <v>56</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="Q78" t="s">
         <v>56</v>
       </c>
-      <c r="R78" s="1" t="s">
+      <c r="R78" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C79" s="1" t="s">
+    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>154</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79">
         <v>4</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79">
         <v>3</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79">
         <v>3.1</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79">
         <v>3.1</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79">
         <v>2.4</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79">
         <v>2.4</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K79">
         <v>2.5</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="L79" t="s">
         <v>176</v>
       </c>
       <c r="M79" t="s">
@@ -4794,48 +4791,48 @@
       <c r="N79" t="s">
         <v>9</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="O79" t="s">
         <v>60</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="P79" t="s">
         <v>60</v>
       </c>
-      <c r="Q79" s="1" t="s">
+      <c r="Q79" t="s">
         <v>60</v>
       </c>
-      <c r="R79" s="1" t="s">
+      <c r="R79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C80" s="1" t="s">
+    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>155</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80">
         <v>4</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80">
         <v>3.8</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80">
         <v>3.9</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80">
         <v>3.75</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80">
         <v>1.95</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80">
         <v>2.0499999999999998</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K80">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="L80" t="s">
         <v>92</v>
       </c>
       <c r="M80" t="s">
@@ -4844,48 +4841,48 @@
       <c r="N80" t="s">
         <v>92</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="O80" t="s">
         <v>23</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="P80" t="s">
         <v>23</v>
       </c>
-      <c r="Q80" s="1" t="s">
+      <c r="Q80" t="s">
         <v>23</v>
       </c>
-      <c r="R80" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C81" s="1" t="s">
+      <c r="R80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>156</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81">
         <v>4</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81">
         <v>4.33</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81">
         <v>4.8</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81">
         <v>4.75</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81">
         <v>1.75</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81">
         <v>1.75</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K81">
         <v>1.78</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="L81" t="s">
         <v>64</v>
       </c>
       <c r="M81" t="s">
@@ -4894,48 +4891,48 @@
       <c r="N81" t="s">
         <v>64</v>
       </c>
-      <c r="O81" s="1" t="s">
+      <c r="O81" t="s">
         <v>107</v>
       </c>
-      <c r="P81" s="1" t="s">
+      <c r="P81" t="s">
         <v>107</v>
       </c>
-      <c r="Q81" s="1" t="s">
+      <c r="Q81" t="s">
         <v>107</v>
       </c>
-      <c r="R81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C82" s="1" t="s">
+      <c r="R81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>157</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82">
         <v>4</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82">
         <v>3.6</v>
       </c>
       <c r="G82">
         <v>3.75</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82">
         <v>3.6</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82">
         <v>2.1</v>
       </c>
       <c r="J82">
         <v>2.1</v>
       </c>
-      <c r="K82" s="1">
+      <c r="K82">
         <v>2.15</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L82" t="s">
         <v>6</v>
       </c>
       <c r="M82" t="s">
@@ -4944,48 +4941,48 @@
       <c r="N82" t="s">
         <v>6</v>
       </c>
-      <c r="O82" s="1" t="s">
+      <c r="O82" t="s">
         <v>8</v>
       </c>
       <c r="P82" t="s">
         <v>8</v>
       </c>
-      <c r="Q82" s="1" t="s">
+      <c r="Q82" t="s">
         <v>8</v>
       </c>
-      <c r="R82" s="1" t="s">
+      <c r="R82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C83" s="1" t="s">
+    <row r="83" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>158</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83">
         <v>4</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83">
         <v>3</v>
       </c>
       <c r="G83">
         <v>3.2</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83">
         <v>3.25</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83">
         <v>2.25</v>
       </c>
       <c r="J83">
         <v>2.35</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K83">
         <v>2.4</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="L83" t="s">
         <v>9</v>
       </c>
       <c r="M83" t="s">
@@ -4994,30 +4991,30 @@
       <c r="N83" t="s">
         <v>98</v>
       </c>
-      <c r="O83" s="1" t="s">
+      <c r="O83" t="s">
         <v>90</v>
       </c>
       <c r="P83" t="s">
         <v>90</v>
       </c>
-      <c r="Q83" s="1" t="s">
+      <c r="Q83" t="s">
         <v>90</v>
       </c>
-      <c r="R83" s="1" t="s">
+      <c r="R83" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C84" s="1" t="s">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>159</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84">
         <v>4</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84">
         <v>4.5</v>
       </c>
       <c r="G84">
@@ -5026,7 +5023,7 @@
       <c r="H84">
         <v>4.75</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84">
         <v>1.8</v>
       </c>
       <c r="J84">
@@ -5035,7 +5032,7 @@
       <c r="K84">
         <v>1.8</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L84" t="s">
         <v>61</v>
       </c>
       <c r="M84" t="s">
@@ -5044,7 +5041,7 @@
       <c r="N84" t="s">
         <v>61</v>
       </c>
-      <c r="O84" s="1" t="s">
+      <c r="O84" t="s">
         <v>17</v>
       </c>
       <c r="P84" t="s">
@@ -5053,21 +5050,21 @@
       <c r="Q84" t="s">
         <v>17</v>
       </c>
-      <c r="R84" s="1" t="s">
+      <c r="R84" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C85" s="1" t="s">
+    <row r="85" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>160</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85">
         <v>4</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85">
         <v>5.5</v>
       </c>
       <c r="G85">
@@ -5076,7 +5073,7 @@
       <c r="H85">
         <v>5.5</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85">
         <v>1.61</v>
       </c>
       <c r="J85">
@@ -5085,7 +5082,7 @@
       <c r="K85">
         <v>1.63</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="L85" t="s">
         <v>15</v>
       </c>
       <c r="M85" t="s">
@@ -5094,7 +5091,7 @@
       <c r="N85" t="s">
         <v>15</v>
       </c>
-      <c r="O85" s="1" t="s">
+      <c r="O85" t="s">
         <v>93</v>
       </c>
       <c r="P85" t="s">
@@ -5103,21 +5100,21 @@
       <c r="Q85" t="s">
         <v>93</v>
       </c>
-      <c r="R85" s="1" t="s">
+      <c r="R85" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C86" s="1" t="s">
+    <row r="86" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>161</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86">
         <v>4</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86">
         <v>3.2</v>
       </c>
       <c r="G86">
@@ -5126,7 +5123,7 @@
       <c r="H86">
         <v>3.2</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86">
         <v>2.4500000000000002</v>
       </c>
       <c r="J86">
@@ -5135,7 +5132,7 @@
       <c r="K86">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="L86" t="s">
         <v>59</v>
       </c>
       <c r="M86" t="s">
@@ -5144,7 +5141,7 @@
       <c r="N86" t="s">
         <v>59</v>
       </c>
-      <c r="O86" s="1" t="s">
+      <c r="O86" t="s">
         <v>25</v>
       </c>
       <c r="P86" t="s">
@@ -5153,21 +5150,21 @@
       <c r="Q86" t="s">
         <v>25</v>
       </c>
-      <c r="R86" s="1" t="s">
+      <c r="R86" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C87" s="1" t="s">
+    <row r="87" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
         <v>162</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87">
         <v>4</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87">
         <v>5.25</v>
       </c>
       <c r="G87">
@@ -5176,7 +5173,7 @@
       <c r="H87">
         <v>4.75</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87">
         <v>1.8</v>
       </c>
       <c r="J87">
@@ -5185,7 +5182,7 @@
       <c r="K87">
         <v>1.83</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="L87" t="s">
         <v>94</v>
       </c>
       <c r="M87" t="s">
@@ -5194,7 +5191,7 @@
       <c r="N87" t="s">
         <v>94</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="O87" t="s">
         <v>57</v>
       </c>
       <c r="P87" t="s">
@@ -5203,21 +5200,21 @@
       <c r="Q87" t="s">
         <v>57</v>
       </c>
-      <c r="R87" s="1" t="s">
+      <c r="R87" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C88" s="1" t="s">
+    <row r="88" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>163</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88">
         <v>4</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88">
         <v>5.25</v>
       </c>
       <c r="G88">
@@ -5226,7 +5223,7 @@
       <c r="H88">
         <v>4.5</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88">
         <v>1.8</v>
       </c>
       <c r="J88">
@@ -5235,7 +5232,7 @@
       <c r="K88">
         <v>1.85</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="L88" t="s">
         <v>58</v>
       </c>
       <c r="M88" t="s">
@@ -5244,7 +5241,7 @@
       <c r="N88" t="s">
         <v>58</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="O88" t="s">
         <v>97</v>
       </c>
       <c r="P88" t="s">
@@ -5253,21 +5250,21 @@
       <c r="Q88" t="s">
         <v>97</v>
       </c>
-      <c r="R88" s="1" t="s">
+      <c r="R88" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C89" s="1" t="s">
+    <row r="89" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>164</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89">
         <v>4</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89">
         <v>3.1</v>
       </c>
       <c r="G89">
@@ -5276,7 +5273,7 @@
       <c r="H89">
         <v>3</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89">
         <v>2.7</v>
       </c>
       <c r="J89">
@@ -5285,7 +5282,7 @@
       <c r="K89">
         <v>2.76</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="L89" t="s">
         <v>9</v>
       </c>
       <c r="M89" t="s">
@@ -5294,7 +5291,7 @@
       <c r="N89" t="s">
         <v>9</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="O89" t="s">
         <v>99</v>
       </c>
       <c r="P89" t="s">
@@ -5303,21 +5300,21 @@
       <c r="Q89" t="s">
         <v>177</v>
       </c>
-      <c r="R89" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C90" s="1" t="s">
+      <c r="R89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>165</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90">
         <v>4</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90">
         <v>5.75</v>
       </c>
       <c r="G90">
@@ -5326,7 +5323,7 @@
       <c r="H90">
         <v>5.5</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90">
         <v>1.66</v>
       </c>
       <c r="J90">
@@ -5335,7 +5332,7 @@
       <c r="K90">
         <v>1.68</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="L90" t="s">
         <v>62</v>
       </c>
       <c r="M90" t="s">
@@ -5344,7 +5341,7 @@
       <c r="N90" t="s">
         <v>62</v>
       </c>
-      <c r="O90" s="1" t="s">
+      <c r="O90" t="s">
         <v>91</v>
       </c>
       <c r="P90" t="s">
@@ -5354,17 +5351,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C91" s="1" t="s">
+    <row r="91" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>166</v>
       </c>
       <c r="D91" t="s">
         <v>31</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91">
         <v>4</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91">
         <v>3.8</v>
       </c>
       <c r="G91">
@@ -5373,16 +5370,16 @@
       <c r="H91">
         <v>4.2</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91">
         <v>1.95</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J91">
         <v>1.95</v>
       </c>
-      <c r="K91" s="1">
+      <c r="K91">
         <v>1.96</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="L91" t="s">
         <v>44</v>
       </c>
       <c r="M91" t="s">
@@ -5391,30 +5388,30 @@
       <c r="N91" t="s">
         <v>44</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="O91" t="s">
         <v>95</v>
       </c>
-      <c r="P91" s="1" t="s">
+      <c r="P91" t="s">
         <v>95</v>
       </c>
-      <c r="Q91" s="1" t="s">
+      <c r="Q91" t="s">
         <v>95</v>
       </c>
-      <c r="R91" s="1" t="s">
+      <c r="R91" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C92" s="1" t="s">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
         <v>167</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92">
         <v>4</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92">
         <v>3.6</v>
       </c>
       <c r="G92">
@@ -5423,16 +5420,16 @@
       <c r="H92">
         <v>3.6</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92">
         <v>2</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J92">
         <v>2.0499999999999998</v>
       </c>
-      <c r="K92" s="1">
+      <c r="K92">
         <v>2.1</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="L92" t="s">
         <v>53</v>
       </c>
       <c r="M92" t="s">
@@ -5441,30 +5438,30 @@
       <c r="N92" t="s">
         <v>53</v>
       </c>
-      <c r="O92" s="1" t="s">
+      <c r="O92" t="s">
         <v>46</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="P92" t="s">
         <v>46</v>
       </c>
-      <c r="Q92" s="1" t="s">
+      <c r="Q92" t="s">
         <v>46</v>
       </c>
-      <c r="R92" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C93" s="1" t="s">
+      <c r="R92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
         <v>168</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93">
         <v>4</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93">
         <v>3.8</v>
       </c>
       <c r="G93">
@@ -5473,16 +5470,16 @@
       <c r="H93">
         <v>3.75</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93">
         <v>2.0499999999999998</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K93">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="L93" t="s">
         <v>42</v>
       </c>
       <c r="M93" t="s">
@@ -5491,30 +5488,30 @@
       <c r="N93" t="s">
         <v>42</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="O93" t="s">
         <v>101</v>
       </c>
-      <c r="P93" s="1" t="s">
+      <c r="P93" t="s">
         <v>101</v>
       </c>
-      <c r="Q93" s="1" t="s">
+      <c r="Q93" t="s">
         <v>101</v>
       </c>
-      <c r="R93" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C94" s="1" t="s">
+      <c r="R93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>169</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94">
         <v>4</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94">
         <v>3.25</v>
       </c>
       <c r="G94">
@@ -5523,16 +5520,16 @@
       <c r="H94">
         <v>3.2</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94">
         <v>2.5499999999999998</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J94">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K94" s="1">
+      <c r="K94">
         <v>2.65</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="L94" t="s">
         <v>9</v>
       </c>
       <c r="M94" t="s">
@@ -5541,30 +5538,30 @@
       <c r="N94" t="s">
         <v>9</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="O94" t="s">
         <v>55</v>
       </c>
-      <c r="P94" s="1" t="s">
+      <c r="P94" t="s">
         <v>55</v>
       </c>
-      <c r="Q94" s="1" t="s">
+      <c r="Q94" t="s">
         <v>55</v>
       </c>
-      <c r="R94" s="1" t="s">
+      <c r="R94" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C95" s="1" t="s">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>170</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95">
         <v>4</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95">
         <v>5.75</v>
       </c>
       <c r="G95">
@@ -5573,16 +5570,16 @@
       <c r="H95">
         <v>6.5</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95">
         <v>1.55</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J95">
         <v>1.55</v>
       </c>
-      <c r="K95" s="1">
+      <c r="K95">
         <v>1.58</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="L95" t="s">
         <v>54</v>
       </c>
       <c r="M95" t="s">
@@ -5591,30 +5588,30 @@
       <c r="N95" t="s">
         <v>54</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="O95" t="s">
         <v>39</v>
       </c>
-      <c r="P95" s="1" t="s">
+      <c r="P95" t="s">
         <v>39</v>
       </c>
-      <c r="Q95" s="1" t="s">
+      <c r="Q95" t="s">
         <v>39</v>
       </c>
-      <c r="R95" s="1" t="s">
+      <c r="R95" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C96" s="1" t="s">
+    <row r="96" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
         <v>171</v>
       </c>
       <c r="D96" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96">
         <v>4</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96">
         <v>5.25</v>
       </c>
       <c r="G96">
@@ -5623,16 +5620,16 @@
       <c r="H96">
         <v>4.75</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96">
         <v>1.8</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J96">
         <v>1.85</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K96">
         <v>1.87</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="L96" t="s">
         <v>36</v>
       </c>
       <c r="M96" t="s">
@@ -5641,30 +5638,30 @@
       <c r="N96" t="s">
         <v>36</v>
       </c>
-      <c r="O96" s="1" t="s">
+      <c r="O96" t="s">
         <v>33</v>
       </c>
-      <c r="P96" s="1" t="s">
+      <c r="P96" t="s">
         <v>33</v>
       </c>
-      <c r="Q96" s="1" t="s">
+      <c r="Q96" t="s">
         <v>33</v>
       </c>
-      <c r="R96" s="1" t="s">
+      <c r="R96" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C97" s="1" t="s">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>172</v>
       </c>
       <c r="D97" t="s">
         <v>31</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97">
         <v>4</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97">
         <v>3.1</v>
       </c>
       <c r="G97">
@@ -5673,16 +5670,16 @@
       <c r="H97">
         <v>3.3</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97">
         <v>2.5</v>
       </c>
-      <c r="J97" s="1">
+      <c r="J97">
         <v>2.4500000000000002</v>
       </c>
-      <c r="K97" s="1">
+      <c r="K97">
         <v>2.5</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="L97" t="s">
         <v>9</v>
       </c>
       <c r="M97" t="s">
@@ -5691,30 +5688,30 @@
       <c r="N97" t="s">
         <v>9</v>
       </c>
-      <c r="O97" s="1" t="s">
+      <c r="O97" t="s">
         <v>89</v>
       </c>
-      <c r="P97" s="1" t="s">
+      <c r="P97" t="s">
         <v>89</v>
       </c>
-      <c r="Q97" s="1" t="s">
+      <c r="Q97" t="s">
         <v>89</v>
       </c>
-      <c r="R97" s="1" t="s">
+      <c r="R97" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C98" s="1" t="s">
+    <row r="98" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
         <v>173</v>
       </c>
       <c r="D98" t="s">
         <v>31</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98">
         <v>4</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98">
         <v>8.5</v>
       </c>
       <c r="G98">
@@ -5723,16 +5720,16 @@
       <c r="H98">
         <v>9</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98">
         <v>1.4</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J98">
         <v>1.4</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K98">
         <v>1.4</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="L98" t="s">
         <v>32</v>
       </c>
       <c r="M98" t="s">
@@ -5741,30 +5738,30 @@
       <c r="N98" t="s">
         <v>32</v>
       </c>
-      <c r="O98" s="1" t="s">
+      <c r="O98" t="s">
         <v>102</v>
       </c>
-      <c r="P98" s="1" t="s">
+      <c r="P98" t="s">
         <v>102</v>
       </c>
-      <c r="Q98" s="1" t="s">
+      <c r="Q98" t="s">
         <v>102</v>
       </c>
-      <c r="R98" s="1" t="s">
+      <c r="R98" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C99" s="1" t="s">
+    <row r="99" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>174</v>
       </c>
       <c r="D99" t="s">
         <v>31</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99">
         <v>4</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99">
         <v>3.1</v>
       </c>
       <c r="G99">
@@ -5773,16 +5770,16 @@
       <c r="H99">
         <v>3</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99">
         <v>2.62</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J99">
         <v>2.7</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K99">
         <v>2.75</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="L99" t="s">
         <v>9</v>
       </c>
       <c r="M99" t="s">
@@ -5791,30 +5788,30 @@
       <c r="N99" t="s">
         <v>9</v>
       </c>
-      <c r="O99" s="1" t="s">
+      <c r="O99" t="s">
         <v>96</v>
       </c>
-      <c r="P99" s="1" t="s">
+      <c r="P99" t="s">
         <v>96</v>
       </c>
-      <c r="Q99" s="1" t="s">
+      <c r="Q99" t="s">
         <v>96</v>
       </c>
-      <c r="R99" s="1" t="s">
+      <c r="R99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C100" s="1" t="s">
+    <row r="100" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
         <v>175</v>
       </c>
       <c r="D100" t="s">
         <v>31</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100">
         <v>4</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100">
         <v>3.5</v>
       </c>
       <c r="G100">
@@ -5823,16 +5820,16 @@
       <c r="H100">
         <v>3.6</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100">
         <v>2.15</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J100">
         <v>2.1</v>
       </c>
-      <c r="K100" s="1">
+      <c r="K100">
         <v>2.15</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="L100" t="s">
         <v>9</v>
       </c>
       <c r="M100" t="s">
@@ -5841,21 +5838,18 @@
       <c r="N100" t="s">
         <v>9</v>
       </c>
-      <c r="O100" s="1" t="s">
+      <c r="O100" t="s">
         <v>100</v>
       </c>
-      <c r="P100" s="1" t="s">
+      <c r="P100" t="s">
         <v>100</v>
       </c>
-      <c r="Q100" s="1" t="s">
+      <c r="Q100" t="s">
         <v>100</v>
       </c>
-      <c r="R100" s="1" t="s">
+      <c r="R100" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="L101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5871,266 +5865,346 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89612FB-164A-4F71-B784-92FA1065F85E}">
+  <dimension ref="C3:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/apuestas.xlsx
+++ b/apuestas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Clase R\apuestas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEDES SALUD notebook\Desktop\Programacion\boludeces\apuestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03009C-2DEF-4266-B253-7E072452F7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A61D8-BCC3-4DAE-88E8-B88FD0E4A048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$L$4:$L$76</definedName>
@@ -945,36 +944,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:T100"/>
   <sheetViews>
-    <sheetView topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C4" sqref="C4"/>
-      <selection pane="topRight" activeCell="N92" sqref="N92"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" customWidth="1"/>
-    <col min="20" max="22" width="12.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" customWidth="1"/>
+    <col min="20" max="22" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -1439,7 +1436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -1489,7 +1486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>22</v>
       </c>
@@ -1539,7 +1536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>27</v>
       </c>
@@ -1695,7 +1692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -1745,7 +1742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>35</v>
       </c>
@@ -1848,7 +1845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>37</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>38</v>
       </c>
@@ -1948,7 +1945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>40</v>
       </c>
@@ -1998,7 +1995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>43</v>
       </c>
@@ -2101,7 +2098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>45</v>
       </c>
@@ -2154,7 +2151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>47</v>
       </c>
@@ -2204,7 +2201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>49</v>
       </c>
@@ -2254,7 +2251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>66</v>
       </c>
@@ -2304,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>67</v>
       </c>
@@ -2354,7 +2351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>68</v>
       </c>
@@ -2404,7 +2401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>69</v>
       </c>
@@ -2454,7 +2451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>70</v>
       </c>
@@ -2504,7 +2501,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>71</v>
       </c>
@@ -2554,7 +2551,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>72</v>
       </c>
@@ -2604,7 +2601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>104</v>
       </c>
@@ -2654,7 +2651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>73</v>
       </c>
@@ -2704,7 +2701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>74</v>
       </c>
@@ -2754,7 +2751,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>75</v>
       </c>
@@ -2804,7 +2801,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>76</v>
       </c>
@@ -2854,7 +2851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>77</v>
       </c>
@@ -2904,7 +2901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>78</v>
       </c>
@@ -2954,7 +2951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>79</v>
       </c>
@@ -3004,7 +3001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>80</v>
       </c>
@@ -3054,7 +3051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>81</v>
       </c>
@@ -3104,7 +3101,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>82</v>
       </c>
@@ -3154,7 +3151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>83</v>
       </c>
@@ -3204,7 +3201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -3254,7 +3251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>85</v>
       </c>
@@ -3304,7 +3301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>86</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>87</v>
       </c>
@@ -3404,7 +3401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>88</v>
       </c>
@@ -3454,7 +3451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -3504,7 +3501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>124</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>125</v>
       </c>
@@ -3604,7 +3601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>126</v>
       </c>
@@ -3654,7 +3651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>127</v>
       </c>
@@ -3704,7 +3701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>128</v>
       </c>
@@ -3754,7 +3751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>129</v>
       </c>
@@ -3804,7 +3801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>130</v>
       </c>
@@ -3854,7 +3851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>131</v>
       </c>
@@ -3904,7 +3901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>132</v>
       </c>
@@ -3954,7 +3951,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -4004,7 +4001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>134</v>
       </c>
@@ -4054,7 +4051,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>135</v>
       </c>
@@ -4104,7 +4101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>136</v>
       </c>
@@ -4154,7 +4151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>137</v>
       </c>
@@ -4204,7 +4201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>138</v>
       </c>
@@ -4254,7 +4251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>139</v>
       </c>
@@ -4304,7 +4301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>140</v>
       </c>
@@ -4354,7 +4351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>141</v>
       </c>
@@ -4404,7 +4401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>142</v>
       </c>
@@ -4454,7 +4451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>143</v>
       </c>
@@ -4504,7 +4501,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -4554,7 +4551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>145</v>
       </c>
@@ -4604,7 +4601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>146</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>152</v>
       </c>
@@ -4704,7 +4701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>153</v>
       </c>
@@ -4754,7 +4751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>154</v>
       </c>
@@ -4804,7 +4801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>155</v>
       </c>
@@ -4854,7 +4851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>156</v>
       </c>
@@ -4904,7 +4901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>157</v>
       </c>
@@ -4954,7 +4951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>158</v>
       </c>
@@ -5004,7 +5001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>159</v>
       </c>
@@ -5054,7 +5051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>160</v>
       </c>
@@ -5104,7 +5101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>161</v>
       </c>
@@ -5154,7 +5151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>162</v>
       </c>
@@ -5204,7 +5201,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>163</v>
       </c>
@@ -5254,7 +5251,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>164</v>
       </c>
@@ -5304,7 +5301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>165</v>
       </c>
@@ -5351,7 +5348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>166</v>
       </c>
@@ -5401,7 +5398,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>167</v>
       </c>
@@ -5451,7 +5448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>168</v>
       </c>
@@ -5501,7 +5498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>169</v>
       </c>
@@ -5551,7 +5548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>170</v>
       </c>
@@ -5601,7 +5598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>171</v>
       </c>
@@ -5651,7 +5648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>172</v>
       </c>
@@ -5701,7 +5698,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>173</v>
       </c>
@@ -5751,7 +5748,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>174</v>
       </c>
@@ -5801,7 +5798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>175</v>
       </c>
@@ -5865,346 +5862,266 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89612FB-164A-4F71-B784-92FA1065F85E}">
-  <dimension ref="C3:C15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
